--- a/ig/sd-ref-profils/all-profiles.xlsx
+++ b/ig/sd-ref-profils/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8183" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8183" uniqueCount="821">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T12:57:54+00:00</t>
+    <t>2023-12-04T13:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2343,7 +2343,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Group)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-group)
 </t>
   </si>
   <si>
@@ -2392,6 +2392,10 @@
   </si>
   <si>
     <t>ResearchStudy.site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-location)
+</t>
   </si>
   <si>
     <t>Lieux / Countries of Recruitment</t>
@@ -4199,7 +4203,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="199">
@@ -4215,7 +4219,7 @@
         <v>8</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="201">
@@ -4367,7 +4371,7 @@
         <v>4</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="221">
@@ -4383,7 +4387,7 @@
         <v>8</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="223">
@@ -4535,7 +4539,7 @@
         <v>4</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="243">
@@ -4551,7 +4555,7 @@
         <v>8</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="245">
@@ -4679,7 +4683,7 @@
         <v>38</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="262">
@@ -4703,7 +4707,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="265">
@@ -4719,7 +4723,7 @@
         <v>8</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="267">
@@ -25506,13 +25510,13 @@
         <v>133</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>449</v>
+        <v>769</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>279</v>
@@ -25585,10 +25589,10 @@
         <v>487</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25614,10 +25618,10 @@
         <v>118</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>246</v>
@@ -25649,10 +25653,10 @@
         <v>210</v>
       </c>
       <c r="Z198" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AA198" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AB198" t="s" s="2">
         <v>76</v>
@@ -25670,7 +25674,7 @@
         <v>76</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>77</v>
@@ -25690,10 +25694,10 @@
         <v>487</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -25716,16 +25720,16 @@
         <v>76</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="P199" s="2"/>
       <c r="Q199" t="s" s="2">
@@ -25775,7 +25779,7 @@
         <v>76</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>77</v>
@@ -25795,10 +25799,10 @@
         <v>487</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -25824,10 +25828,10 @@
         <v>230</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
@@ -25878,7 +25882,7 @@
         <v>76</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>77</v>
@@ -25898,10 +25902,10 @@
         <v>487</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -26001,10 +26005,10 @@
         <v>487</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -26106,10 +26110,10 @@
         <v>487</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -26213,10 +26217,10 @@
         <v>487</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -26242,10 +26246,10 @@
         <v>84</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>215</v>
@@ -26298,7 +26302,7 @@
         <v>76</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>83</v>
@@ -26318,10 +26322,10 @@
         <v>487</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -26347,10 +26351,10 @@
         <v>118</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>246</v>
@@ -26403,7 +26407,7 @@
         <v>76</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>77</v>
@@ -26423,10 +26427,10 @@
         <v>487</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26452,10 +26456,10 @@
         <v>84</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>215</v>
@@ -26508,7 +26512,7 @@
         <v>76</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>77</v>
@@ -26528,10 +26532,10 @@
         <v>487</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26557,10 +26561,10 @@
         <v>230</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
@@ -26611,7 +26615,7 @@
         <v>76</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>77</v>
@@ -26631,10 +26635,10 @@
         <v>487</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26734,10 +26738,10 @@
         <v>487</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26839,10 +26843,10 @@
         <v>487</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26946,10 +26950,10 @@
         <v>487</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -26975,10 +26979,10 @@
         <v>84</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>215</v>
@@ -27031,7 +27035,7 @@
         <v>76</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>77</v>
@@ -27051,10 +27055,10 @@
         <v>487</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -27080,10 +27084,10 @@
         <v>118</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>246</v>
@@ -27115,10 +27119,10 @@
         <v>154</v>
       </c>
       <c r="Z212" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="AA212" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="AB212" t="s" s="2">
         <v>76</v>
@@ -27136,7 +27140,7 @@
         <v>76</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>77</v>
@@ -27508,7 +27512,7 @@
       </c>
       <c r="R216" s="2"/>
       <c r="S216" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="T216" t="s" s="2">
         <v>76</v>
@@ -27596,7 +27600,7 @@
         <v>76</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M217" t="s" s="2">
         <v>102</v>
@@ -28025,7 +28029,7 @@
       </c>
       <c r="R221" s="2"/>
       <c r="S221" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="T221" t="s" s="2">
         <v>76</v>
@@ -28542,7 +28546,7 @@
       </c>
       <c r="R226" s="2"/>
       <c r="S226" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="T226" t="s" s="2">
         <v>76</v>
@@ -29059,7 +29063,7 @@
       </c>
       <c r="R231" s="2"/>
       <c r="S231" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="T231" t="s" s="2">
         <v>76</v>
